--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.2811778052583</v>
+        <v>306.08858867306</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.6045285148512</v>
+        <v>418.8039106979725</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.5749033374079</v>
+        <v>378.8338532559376</v>
       </c>
       <c r="AD2" t="n">
-        <v>245281.1778052583</v>
+        <v>306088.58867306</v>
       </c>
       <c r="AE2" t="n">
-        <v>335604.5285148512</v>
+        <v>418803.9106979725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.633228684316785e-06</v>
+        <v>3.021900668821938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.303385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>303574.9033374079</v>
+        <v>378833.8532559376</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.9692735546913</v>
+        <v>227.5810838088111</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.8736556445251</v>
+        <v>311.3864790358886</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.5032576322169</v>
+        <v>281.6681905104637</v>
       </c>
       <c r="AD3" t="n">
-        <v>178969.2735546913</v>
+        <v>227581.0838088111</v>
       </c>
       <c r="AE3" t="n">
-        <v>244873.6556445251</v>
+        <v>311386.4790358886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.059841433359358e-06</v>
+        <v>3.811245947924117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>221503.2576322169</v>
+        <v>281668.1905104637</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8057357496741</v>
+        <v>201.5027973498146</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.0755489658938</v>
+        <v>275.7050170099064</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.1216720120245</v>
+        <v>249.3921171409835</v>
       </c>
       <c r="AD4" t="n">
-        <v>152805.7357496741</v>
+        <v>201502.7973498146</v>
       </c>
       <c r="AE4" t="n">
-        <v>209075.5489658938</v>
+        <v>275705.0170099064</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.223115284623395e-06</v>
+        <v>4.113345320212772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>189121.6720120245</v>
+        <v>249392.1171409835</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.402537784262</v>
+        <v>199.0995993844024</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.7873874880069</v>
+        <v>272.4168555320195</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.1473280506224</v>
+        <v>246.4177731795814</v>
       </c>
       <c r="AD5" t="n">
-        <v>150402.537784262</v>
+        <v>199099.5993844024</v>
       </c>
       <c r="AE5" t="n">
-        <v>205787.3874880069</v>
+        <v>272416.8555320195</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.25490641906537e-06</v>
+        <v>4.172167242308147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.73828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>186147.3280506224</v>
+        <v>246417.7731795814</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.3139400606034</v>
+        <v>245.2835372454511</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.3418817843552</v>
+        <v>335.6077568050142</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.4453934176587</v>
+        <v>303.5778235240886</v>
       </c>
       <c r="AD2" t="n">
-        <v>198313.9400606034</v>
+        <v>245283.5372454511</v>
       </c>
       <c r="AE2" t="n">
-        <v>271341.8817843552</v>
+        <v>335607.7568050142</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.898274257432964e-06</v>
+        <v>3.618403699886629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>245445.3934176587</v>
+        <v>303577.8235240886</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.682341561653</v>
+        <v>192.6518492379497</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.329006775876</v>
+        <v>263.5947593269867</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.3053261292611</v>
+        <v>238.4376454544644</v>
       </c>
       <c r="AD3" t="n">
-        <v>145682.341561653</v>
+        <v>192651.8492379497</v>
       </c>
       <c r="AE3" t="n">
-        <v>199329.006775876</v>
+        <v>263594.7593269867</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.288215502529764e-06</v>
+        <v>4.361691893608809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.868489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>180305.3261292611</v>
+        <v>238437.6454544644</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.5691656701438</v>
+        <v>187.5386733464405</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.3329339437168</v>
+        <v>256.5986864948275</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.9769486691509</v>
+        <v>232.1092679943543</v>
       </c>
       <c r="AD4" t="n">
-        <v>140569.1656701438</v>
+        <v>187538.6733464405</v>
       </c>
       <c r="AE4" t="n">
-        <v>192332.9339437168</v>
+        <v>256598.6864948275</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.355753161984575e-06</v>
+        <v>4.490429095778661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>173976.9486691509</v>
+        <v>232109.2679943543</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.1628167671373</v>
+        <v>159.9312458773286</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.6755788762898</v>
+        <v>218.8249862778665</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.2454885414814</v>
+        <v>197.9406367103669</v>
       </c>
       <c r="AD2" t="n">
-        <v>118162.8167671373</v>
+        <v>159931.2458773286</v>
       </c>
       <c r="AE2" t="n">
-        <v>161675.5788762898</v>
+        <v>218824.9862778665</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554931795121665e-06</v>
+        <v>5.441336090461506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.868489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>146245.4885414814</v>
+        <v>197940.6367103669</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.725012080363</v>
+        <v>175.6404897275146</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.2826581114084</v>
+        <v>240.3190667566064</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.6451553022429</v>
+        <v>217.383352315354</v>
       </c>
       <c r="AD2" t="n">
-        <v>142725.012080363</v>
+        <v>175640.4897275147</v>
       </c>
       <c r="AE2" t="n">
-        <v>195282.6581114084</v>
+        <v>240319.0667566064</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395324327106982e-06</v>
+        <v>4.863336523488422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>176645.1553022429</v>
+        <v>217383.352315354</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.3503151953809</v>
+        <v>170.15215852561</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.878075432745</v>
+        <v>232.8096898780801</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.3788345493947</v>
+        <v>210.5906598266353</v>
       </c>
       <c r="AD3" t="n">
-        <v>126350.3151953809</v>
+        <v>170152.1585256101</v>
       </c>
       <c r="AE3" t="n">
-        <v>172878.075432745</v>
+        <v>232809.6898780802</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.49879083144918e-06</v>
+        <v>5.073409298949619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>156378.8345493947</v>
+        <v>210590.6598266353</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6617376462234</v>
+        <v>152.8012920457545</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.8312009014335</v>
+        <v>209.0694688941485</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.8136266400171</v>
+        <v>189.1161722137931</v>
       </c>
       <c r="AD2" t="n">
-        <v>122661.7376462234</v>
+        <v>152801.2920457545</v>
       </c>
       <c r="AE2" t="n">
-        <v>167831.2009014335</v>
+        <v>209069.4688941485</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.549888581306707e-06</v>
+        <v>5.678103816027976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>151813.6266400171</v>
+        <v>189116.1722137931</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.8411927356566</v>
+        <v>254.435454900595</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.0092450901946</v>
+        <v>348.1298142948872</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.9992399448398</v>
+        <v>314.9047934219502</v>
       </c>
       <c r="AD2" t="n">
-        <v>206841.1927356567</v>
+        <v>254435.454900595</v>
       </c>
       <c r="AE2" t="n">
-        <v>283009.2450901946</v>
+        <v>348129.8142948872</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8251073826535e-06</v>
+        <v>3.450846730456539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.53515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>255999.2399448399</v>
+        <v>314904.7934219502</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7607151616811</v>
+        <v>198.1842956174762</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2774615774622</v>
+        <v>271.1644965377595</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.5906301568036</v>
+        <v>245.2849375700363</v>
       </c>
       <c r="AD3" t="n">
-        <v>150760.7151616811</v>
+        <v>198184.2956174762</v>
       </c>
       <c r="AE3" t="n">
-        <v>206277.4615774621</v>
+        <v>271164.4965377595</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226166773413598e-06</v>
+        <v>4.209155255465738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.998697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186590.6301568036</v>
+        <v>245284.9375700363</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.4134037816661</v>
+        <v>190.8369842374612</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.2245460068292</v>
+        <v>261.1115809671265</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.497150738873</v>
+        <v>236.1914581521058</v>
       </c>
       <c r="AD4" t="n">
-        <v>143413.4037816661</v>
+        <v>190836.9842374612</v>
       </c>
       <c r="AE4" t="n">
-        <v>196224.5460068292</v>
+        <v>261111.5809671265</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324445467796158e-06</v>
+        <v>4.394977040203971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.69921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>177497.150738873</v>
+        <v>236191.4581521057</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.4227328407191</v>
+        <v>158.4504965793215</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.3994516317379</v>
+        <v>216.7989597622856</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.8048373006207</v>
+        <v>196.1079713218863</v>
       </c>
       <c r="AD2" t="n">
-        <v>119422.7328407192</v>
+        <v>158450.4965793215</v>
       </c>
       <c r="AE2" t="n">
-        <v>163399.4516317379</v>
+        <v>216798.9597622856</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.515777899881597e-06</v>
+        <v>5.767588759085544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>147804.8373006207</v>
+        <v>196107.9713218863</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.8896014186122</v>
+        <v>209.4707640852396</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.2409829597696</v>
+        <v>286.6071406191926</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.8397382703499</v>
+        <v>259.2537573742295</v>
       </c>
       <c r="AD2" t="n">
-        <v>163889.6014186122</v>
+        <v>209470.7640852396</v>
       </c>
       <c r="AE2" t="n">
-        <v>224240.9829597696</v>
+        <v>286607.1406191926</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12978494006773e-06</v>
+        <v>4.174349049045059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202839.7382703499</v>
+        <v>259253.7573742294</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.6978455757677</v>
+        <v>179.1936673878234</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9312906493482</v>
+        <v>245.1806811865735</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.4725850155047</v>
+        <v>221.7809810874453</v>
       </c>
       <c r="AD3" t="n">
-        <v>133697.8455757677</v>
+        <v>179193.6673878234</v>
       </c>
       <c r="AE3" t="n">
-        <v>182931.2906493482</v>
+        <v>245180.6811865736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428399656398365e-06</v>
+        <v>4.759629766217377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165472.5850155047</v>
+        <v>221780.9810874453</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.2658801160117</v>
+        <v>237.7641378340087</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.6984152297098</v>
+        <v>325.3193827977944</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.7222857762952</v>
+        <v>294.271357492291</v>
       </c>
       <c r="AD2" t="n">
-        <v>191265.8801160117</v>
+        <v>237764.1378340088</v>
       </c>
       <c r="AE2" t="n">
-        <v>261698.4152297098</v>
+        <v>325319.3827977944</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.962765145623719e-06</v>
+        <v>3.77381459323699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>236722.2857762952</v>
+        <v>294271.357492291</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.0453060814255</v>
+        <v>186.5434742908716</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.6161661433788</v>
+        <v>255.2370112419151</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.3285881816871</v>
+        <v>230.8775491164562</v>
       </c>
       <c r="AD3" t="n">
-        <v>140045.3060814255</v>
+        <v>186543.4742908716</v>
       </c>
       <c r="AE3" t="n">
-        <v>191616.1661433788</v>
+        <v>255237.0112419151</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356678345326645e-06</v>
+        <v>4.531192716046069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>173328.5881816871</v>
+        <v>230877.5491164562</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.6770287906757</v>
+        <v>185.1751970001218</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.7440287900421</v>
+        <v>253.3648738885784</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.635124989791</v>
+        <v>229.1840859245601</v>
       </c>
       <c r="AD4" t="n">
-        <v>138677.0287906757</v>
+        <v>185175.1970001218</v>
       </c>
       <c r="AE4" t="n">
-        <v>189744.0287900421</v>
+        <v>253364.8738885784</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.373497658927822e-06</v>
+        <v>4.563531262131357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>171635.124989791</v>
+        <v>229184.0859245601</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.2062199123686</v>
+        <v>283.5777311784008</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.8195266500337</v>
+        <v>388.003562364837</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.1055227031925</v>
+        <v>350.9730469391562</v>
       </c>
       <c r="AD2" t="n">
-        <v>235206.2199123686</v>
+        <v>283577.7311784007</v>
       </c>
       <c r="AE2" t="n">
-        <v>321819.5266500337</v>
+        <v>388003.562364837</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700352349691409e-06</v>
+        <v>3.167627461829429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>291105.5227031925</v>
+        <v>350973.0469391563</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.5548104333411</v>
+        <v>209.8334662600003</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.4653483326431</v>
+        <v>287.1034057359906</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.8019887725539</v>
+        <v>259.7026596447929</v>
       </c>
       <c r="AD3" t="n">
-        <v>173554.8104333411</v>
+        <v>209833.4662600003</v>
       </c>
       <c r="AE3" t="n">
-        <v>237465.3483326431</v>
+        <v>287103.4057359906</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117011494839192e-06</v>
+        <v>3.943831847133466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214801.9887725539</v>
+        <v>259702.6596447929</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.0163482502998</v>
+        <v>197.3024291532057</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.8907418132746</v>
+        <v>269.9578879361425</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.431695577127</v>
+        <v>244.1934859998715</v>
       </c>
       <c r="AD4" t="n">
-        <v>149016.3482502998</v>
+        <v>197302.4291532057</v>
       </c>
       <c r="AE4" t="n">
-        <v>203890.7418132746</v>
+        <v>269957.8879361425</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268626579334778e-06</v>
+        <v>4.226279250086721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.751302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>184431.695577127</v>
+        <v>244193.4859998715</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.258471285862</v>
+        <v>196.5445521887679</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.8537811153594</v>
+        <v>268.9209272382273</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.4937009528371</v>
+        <v>243.2554913755815</v>
       </c>
       <c r="AD5" t="n">
-        <v>148258.471285862</v>
+        <v>196544.5521887679</v>
       </c>
       <c r="AE5" t="n">
-        <v>202853.7811153594</v>
+        <v>268920.9272382273</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.277214336293326e-06</v>
+        <v>4.24227758994984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>183493.7009528371</v>
+        <v>243255.4913755815</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7942155864682</v>
+        <v>183.1557555623459</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.9550542197045</v>
+        <v>250.6017850219463</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3944315012595</v>
+        <v>226.6847023813389</v>
       </c>
       <c r="AD2" t="n">
-        <v>149794.2155864682</v>
+        <v>183155.7555623459</v>
       </c>
       <c r="AE2" t="n">
-        <v>204955.0542197045</v>
+        <v>250601.7850219463</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302118624355827e-06</v>
+        <v>4.614590693335445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>185394.4315012595</v>
+        <v>226684.7023813389</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.6304366397244</v>
+        <v>173.0270297415884</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.997838184753</v>
+        <v>236.7432155061466</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.2008515229666</v>
+        <v>214.1487752894982</v>
       </c>
       <c r="AD3" t="n">
-        <v>128630.4366397244</v>
+        <v>173027.0297415884</v>
       </c>
       <c r="AE3" t="n">
-        <v>175997.838184753</v>
+        <v>236743.2155061466</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.478004427505864e-06</v>
+        <v>4.967153320525476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159200.8515229666</v>
+        <v>214148.7752894982</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6359524527848</v>
+        <v>163.1316076257008</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0594322284371</v>
+        <v>223.2038624119828</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3063916789688</v>
+        <v>201.9015990520357</v>
       </c>
       <c r="AD2" t="n">
-        <v>120635.9524527848</v>
+        <v>163131.6076257008</v>
       </c>
       <c r="AE2" t="n">
-        <v>165059.4322284371</v>
+        <v>223203.8624119828</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.543423096566028e-06</v>
+        <v>5.321000178398478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149306.3916789688</v>
+        <v>201901.5990520357</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.0941156667804</v>
+        <v>163.5897708396963</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.6863113505599</v>
+        <v>223.8307415341056</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.8734423375068</v>
+        <v>202.4686497105737</v>
       </c>
       <c r="AD3" t="n">
-        <v>121094.1156667804</v>
+        <v>163589.7708396963</v>
       </c>
       <c r="AE3" t="n">
-        <v>165686.3113505599</v>
+        <v>223830.7415341056</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54164662983678e-06</v>
+        <v>5.317283698904362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.790364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>149873.4423375068</v>
+        <v>202468.6497105737</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2397417157525</v>
+        <v>156.2159416727563</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6760986340172</v>
+        <v>213.7415431575197</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6277130802242</v>
+        <v>193.3423502667671</v>
       </c>
       <c r="AD2" t="n">
-        <v>115239.7417157525</v>
+        <v>156215.9416727563</v>
       </c>
       <c r="AE2" t="n">
-        <v>157676.0986340172</v>
+        <v>213741.5431575197</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562237350621803e-06</v>
+        <v>5.569934448391867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142627.7130802242</v>
+        <v>193342.3502667671</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0054796659253</v>
+        <v>154.0549890300871</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7238150794173</v>
+        <v>210.784832417319</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.575436938555</v>
+        <v>190.6678238498406</v>
       </c>
       <c r="AD2" t="n">
-        <v>116005.4796659253</v>
+        <v>154054.9890300871</v>
       </c>
       <c r="AE2" t="n">
-        <v>158723.8150794173</v>
+        <v>210784.832417319</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429211387843207e-06</v>
+        <v>5.777944786082358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>143575.436938555</v>
+        <v>190667.8238498406</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.4599433918201</v>
+        <v>217.5529685964338</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.5990588274242</v>
+        <v>297.6655693931011</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.2092539148497</v>
+        <v>269.256785226562</v>
       </c>
       <c r="AD2" t="n">
-        <v>171459.9433918201</v>
+        <v>217552.9685964338</v>
       </c>
       <c r="AE2" t="n">
-        <v>234599.0588274242</v>
+        <v>297665.5693931011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.045433469288968e-06</v>
+        <v>3.969323589801585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>212209.2539148497</v>
+        <v>269256.785226562</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.55226572191</v>
+        <v>182.559950071952</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.8368342214274</v>
+        <v>249.7865776649067</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.0053889905307</v>
+        <v>225.9472972703042</v>
       </c>
       <c r="AD3" t="n">
-        <v>136552.26572191</v>
+        <v>182559.950071952</v>
       </c>
       <c r="AE3" t="n">
-        <v>186836.8342214274</v>
+        <v>249786.5776649067</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394410027997382e-06</v>
+        <v>4.646539890193211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>169005.3889905307</v>
+        <v>225947.2972703042</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.3195522326521</v>
+        <v>182.3272365826941</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.5184253588303</v>
+        <v>249.4681688023097</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.7173686228901</v>
+        <v>225.6592769026637</v>
       </c>
       <c r="AD4" t="n">
-        <v>136319.5522326521</v>
+        <v>182327.2365826941</v>
       </c>
       <c r="AE4" t="n">
-        <v>186518.4253588303</v>
+        <v>249468.1688023097</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404528501763108e-06</v>
+        <v>4.66617557974954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>168717.3686228901</v>
+        <v>225659.2769026637</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.694904712574</v>
+        <v>275.5437173786273</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.1232844152122</v>
+        <v>377.011070248313</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9571323588426</v>
+        <v>341.0296628421737</v>
       </c>
       <c r="AD2" t="n">
-        <v>215694.9047125739</v>
+        <v>275543.7173786273</v>
       </c>
       <c r="AE2" t="n">
-        <v>295123.2844152122</v>
+        <v>377011.0702483131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754399005042462e-06</v>
+        <v>3.291940660055586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>266957.1323588425</v>
+        <v>341029.6628421737</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.6470733005908</v>
+        <v>204.6076549215148</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.750365873536</v>
+        <v>279.9532201161533</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.7278748148048</v>
+        <v>253.234877705162</v>
       </c>
       <c r="AD3" t="n">
-        <v>168647.0733005908</v>
+        <v>204607.6549215148</v>
       </c>
       <c r="AE3" t="n">
-        <v>230750.365873536</v>
+        <v>279953.2201161532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.164915703711239e-06</v>
+        <v>4.062231003412699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>208727.8748148048</v>
+        <v>253234.877705162</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.4621919244823</v>
+        <v>193.3241738864079</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.0277883299827</v>
+        <v>264.514663571877</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.0328555490809</v>
+        <v>239.2697553293162</v>
       </c>
       <c r="AD4" t="n">
-        <v>145462.1919244823</v>
+        <v>193324.1738864079</v>
       </c>
       <c r="AE4" t="n">
-        <v>199027.7883299827</v>
+        <v>264514.6635718769</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.304079536026949e-06</v>
+        <v>4.323356936961752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>180032.8555490809</v>
+        <v>239269.7553293162</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.8391248147241</v>
+        <v>193.7011067766497</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.5435245395167</v>
+        <v>265.0303997814109</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.4993706186175</v>
+        <v>239.7362703988528</v>
       </c>
       <c r="AD5" t="n">
-        <v>145839.1248147241</v>
+        <v>193701.1067766497</v>
       </c>
       <c r="AE5" t="n">
-        <v>199543.5245395167</v>
+        <v>265030.3997814109</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.30284589823622e-06</v>
+        <v>4.321042148597526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>180499.3706186175</v>
+        <v>239736.2703988528</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.5823891060259</v>
+        <v>168.22325046751</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.0368297800961</v>
+        <v>230.1704727755713</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.8543674292117</v>
+        <v>208.2033259002246</v>
       </c>
       <c r="AD2" t="n">
-        <v>131582.3891060259</v>
+        <v>168223.25046751</v>
       </c>
       <c r="AE2" t="n">
-        <v>180036.8297800961</v>
+        <v>230170.4727755713</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196045599036461e-06</v>
+        <v>5.492143386318161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>162854.3674292117</v>
+        <v>208203.3259002246</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8379970699714</v>
+        <v>168.0084441127709</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.8088550547939</v>
+        <v>229.8765652444299</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5070976601455</v>
+        <v>207.9374684913535</v>
       </c>
       <c r="AD2" t="n">
-        <v>124837.9970699714</v>
+        <v>168008.4441127709</v>
       </c>
       <c r="AE2" t="n">
-        <v>170808.8550547939</v>
+        <v>229876.5652444299</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495376866171188e-06</v>
+        <v>5.138688302279572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154507.0976601455</v>
+        <v>207937.4684913534</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.5370878557495</v>
+        <v>166.707534898549</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.0288936758323</v>
+        <v>228.0966038654684</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.897013297</v>
+        <v>206.3273841282079</v>
       </c>
       <c r="AD3" t="n">
-        <v>123537.0878557495</v>
+        <v>166707.534898549</v>
       </c>
       <c r="AE3" t="n">
-        <v>169028.8936758323</v>
+        <v>228096.6038654684</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528507118367962e-06</v>
+        <v>5.206912882591705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152897.013297</v>
+        <v>206327.3841282079</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.653388599319</v>
+        <v>201.5280257138204</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3400773412388</v>
+        <v>275.739535570536</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.8837611880402</v>
+        <v>249.4233412986337</v>
       </c>
       <c r="AD2" t="n">
-        <v>156653.388599319</v>
+        <v>201528.0257138204</v>
       </c>
       <c r="AE2" t="n">
-        <v>214340.0773412388</v>
+        <v>275739.535570536</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.214575383163689e-06</v>
+        <v>4.387481563469267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>193883.7611880402</v>
+        <v>249423.3412986337</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.105290949418</v>
+        <v>176.06517940994</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.3840430341404</v>
+        <v>240.9001459160869</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.2638817340979</v>
+        <v>217.9089740954037</v>
       </c>
       <c r="AD3" t="n">
-        <v>131105.290949418</v>
+        <v>176065.17940994</v>
       </c>
       <c r="AE3" t="n">
-        <v>179384.0430341404</v>
+        <v>240900.1459160869</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.455012839996523e-06</v>
+        <v>4.863832432823948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>162263.8817340979</v>
+        <v>217908.9740954037</v>
       </c>
     </row>
   </sheetData>
